--- a/biology/Botanique/Alpinia_purpurata/Alpinia_purpurata.xlsx
+++ b/biology/Botanique/Alpinia_purpurata/Alpinia_purpurata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia purpurata  est une espèce de plantes à fleurs du genre Alpinia de la famille des Zingiberaceae, originaire de Papouasie-Nouvelle-Guinée, de Nouvelle-Calédonie, des Îles Salomon et de Vanuatu.
-C'est une plante herbacée vivace ornementale connue sous les noms de gingembre rouge, alpine ou galanga  à La Réunion et de lavande rouge[1] ou lavande rose aux Antilles françaises. Elle est appelée opuhi à Tahiti
-En 1904, Karl Moritz Schumann, botaniste allemand, en fait la description en latin dans le journal botanique Das Pflanzenreich édité par le botaniste allemand « Adolf Engler ».  Volume IV. 46, Cahier (Heft) 20 de 1904, page 323[2].
+C'est une plante herbacée vivace ornementale connue sous les noms de gingembre rouge, alpine ou galanga  à La Réunion et de lavande rouge ou lavande rose aux Antilles françaises. Elle est appelée opuhi à Tahiti
+En 1904, Karl Moritz Schumann, botaniste allemand, en fait la description en latin dans le journal botanique Das Pflanzenreich édité par le botaniste allemand « Adolf Engler ».  Volume IV. 46, Cahier (Heft) 20 de 1904, page 323.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Alpinia purpurata est une plante herbacée vivace[3] de 2 à 3 m de hauteur, à long rhizome duquel émergent de grandes tiges feuillées, érigées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alpinia purpurata est une plante herbacée vivace de 2 à 3 m de hauteur, à long rhizome duquel émergent de grandes tiges feuillées, érigées.
 Les feuilles alternes, brièvement pétiolées, sont oblongues-linéaires et font 30-50 de long sur 5-10 cm de large, avec un apex aigu.
 L'inflorescence remarquable par sa couleur rouge vif se dresse à l'extrémité de la tige. Elle comporte des bractées cartilagineuses de 3-4 cm, rouges ou roses, persistant longtemps. 
 Les fleurs blanches souvent avortées en culture, peu visibles à l'intérieur des bractées, comportent une corolle de 3 cm.
@@ -548,11 +562,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire de Papouasie-Nouvelle-Guinée, de Nouvelle-Calédonie, des Îles Salomon et de Vanuatu.
 Elle est largement cultivée dans les régions tropicales et subtropicales où elle s'est naturalisée en certains endroits (comme à Hawaï).
-Elle fait l'objet d'un commerce en plante coupée. En 2005, Hawaï en a exporté pour une valeur totale de 680 000 US$[4]
+Elle fait l'objet d'un commerce en plante coupée. En 2005, Hawaï en a exporté pour une valeur totale de 680 000 US$
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alpinia purpurata apprécie les sols riches, humides, en situation mi-ombragée.
 			Touffe
@@ -619,7 +637,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alpinia grandis K.Schum., Notizbl. (1898)
 Alpinia purpurata var. albobracteata K.Schum.(1904)
